--- a/regionseng/3/employment and unemployment/wages.xlsx
+++ b/regionseng/3/employment and unemployment/wages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>* Some enterprise and organizations are represented by the location of the head office</t>
   </si>
   <si>
-    <t>Average monthly nominal earnings*, 2010-2020</t>
+    <t>Average monthly nominal earnings*, 2010-2022</t>
   </si>
 </sst>
 </file>
@@ -35,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,7 +170,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,8 +192,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -492,47 +509,49 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="12" width="8.7109375" customWidth="1"/>
+    <col min="2" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2">
         <v>2010</v>
@@ -567,8 +586,14 @@
       <c r="L3" s="2">
         <v>2020</v>
       </c>
+      <c r="M3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -605,15 +630,21 @@
       <c r="L4" s="8">
         <v>678.72369152636224</v>
       </c>
+      <c r="M4" s="8">
+        <v>699.54881999660495</v>
+      </c>
+      <c r="N4" s="8">
+        <v>880.92832644294367</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/3/employment and unemployment/wages.xlsx
+++ b/regionseng/3/employment and unemployment/wages.xlsx
@@ -25,7 +25,7 @@
     <t>* Some enterprise and organizations are represented by the location of the head office</t>
   </si>
   <si>
-    <t>Average monthly nominal earnings*, 2010-2022</t>
+    <t>Average monthly nominal earnings*, 2010-2023</t>
   </si>
 </sst>
 </file>
@@ -509,13 +509,13 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="14" width="8.7109375" customWidth="1"/>
+    <col min="2" max="15" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
-      <c r="O1" s="4"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -547,7 +547,8 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -592,6 +593,9 @@
       <c r="N3" s="2">
         <v>2022</v>
       </c>
+      <c r="O3" s="2">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -636,6 +640,9 @@
       <c r="N4" s="8">
         <v>880.92832644294367</v>
       </c>
+      <c r="O4" s="8">
+        <v>991.44050203067309</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -644,7 +651,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
